--- a/data/Calendario_Campionato---A-buon-rendere.xlsx
+++ b/data/Calendario_Campionato---A-buon-rendere.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Calendario Campionato - A buon rendere</t>
   </si>
@@ -56,7 +56,7 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>Atletico Manontroppo</t>
+    <t>SamPDORRR FC</t>
   </si>
   <si>
     <t xml:space="preserve">Civediamoamaggio </t>
@@ -92,7 +92,16 @@
     <t>7ª Giornata serie a</t>
   </si>
   <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>2-3</t>
   </si>
   <si>
     <t>5ª Giornata lega</t>
@@ -608,10 +617,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
@@ -632,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -640,16 +649,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>7</v>
@@ -664,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -672,16 +681,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -696,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -704,16 +713,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
@@ -728,25 +737,25 @@
         <v>9</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -765,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>6</v>
@@ -780,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>7</v>
@@ -812,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -829,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>15</v>
@@ -844,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -861,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>9</v>
@@ -876,25 +885,25 @@
         <v>11</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -913,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
@@ -928,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -945,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>12</v>
@@ -960,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -977,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>17</v>
@@ -992,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1009,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>14</v>
@@ -1024,25 +1033,25 @@
         <v>9</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
@@ -1061,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>14</v>
@@ -1076,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -1093,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>7</v>
@@ -1108,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -1125,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>6</v>
@@ -1140,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1157,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>12</v>
@@ -1172,25 +1181,25 @@
         <v>17</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
@@ -1209,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>6</v>
@@ -1224,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1241,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>9</v>
@@ -1256,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -1273,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>12</v>
@@ -1288,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1305,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>7</v>
@@ -1320,25 +1329,25 @@
         <v>17</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
@@ -1357,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>15</v>
@@ -1372,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
@@ -1389,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>6</v>
@@ -1404,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -1421,7 +1430,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>9</v>
@@ -1436,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -1453,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
@@ -1468,25 +1477,25 @@
         <v>12</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
@@ -1505,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>7</v>
@@ -1520,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1537,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -1552,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1569,7 +1578,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>17</v>
@@ -1584,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1601,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -1616,25 +1625,25 @@
         <v>6</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="G44" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
@@ -1653,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>6</v>
@@ -1668,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -1685,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>7</v>
@@ -1700,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -1717,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -1732,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>12</v>
@@ -1764,25 +1773,25 @@
         <v>9</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
@@ -1801,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>6</v>
@@ -1816,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1833,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -1848,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -1865,7 +1874,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>15</v>
@@ -1880,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -1897,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>9</v>
@@ -1912,25 +1921,25 @@
         <v>11</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
@@ -1949,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>7</v>
@@ -1964,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -1981,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>12</v>
@@ -1996,7 +2005,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -2013,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>17</v>
@@ -2028,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
@@ -2045,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
@@ -2060,25 +2069,25 @@
         <v>9</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="G59" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
@@ -2097,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -2112,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -2129,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>7</v>
@@ -2144,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
@@ -2161,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>6</v>
@@ -2176,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
@@ -2193,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>12</v>
@@ -2208,25 +2217,25 @@
         <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -2245,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>6</v>
@@ -2260,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -2277,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>9</v>
@@ -2292,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -2309,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
@@ -2324,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
@@ -2341,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -2356,25 +2365,25 @@
         <v>17</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
@@ -2393,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
@@ -2408,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -2425,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>6</v>
@@ -2440,7 +2449,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
@@ -2457,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>9</v>
@@ -2472,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
@@ -2489,7 +2498,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>7</v>
@@ -2504,25 +2513,25 @@
         <v>12</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="G74" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="4"/>
@@ -2541,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>7</v>
@@ -2556,7 +2565,7 @@
         <v>9</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -2573,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -2588,7 +2597,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
@@ -2605,7 +2614,7 @@
         <v>17</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>17</v>
@@ -2620,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -2637,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>12</v>
@@ -2652,25 +2661,25 @@
         <v>6</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="4"/>
@@ -2689,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>6</v>
@@ -2704,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
@@ -2721,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>7</v>
@@ -2736,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
@@ -2753,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -2768,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
@@ -2785,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>12</v>
@@ -2800,25 +2809,25 @@
         <v>9</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="G84" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="4"/>
@@ -2837,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>6</v>
@@ -2852,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -2869,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>7</v>
@@ -2884,7 +2893,7 @@
         <v>14</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -2901,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
@@ -2916,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -2933,7 +2942,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>9</v>
@@ -2948,16 +2957,16 @@
         <v>11</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
@@ -2976,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -2993,7 +3002,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -3027,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/Calendario_Campionato---A-buon-rendere.xlsx
+++ b/data/Calendario_Campionato---A-buon-rendere.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Calendario Campionato - A buon rendere</t>
   </si>
@@ -95,61 +95,91 @@
     <t>1-2</t>
   </si>
   <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>5ª Giornata lega</t>
+  </si>
+  <si>
+    <t>8ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>6ª Giornata lega</t>
+  </si>
+  <si>
+    <t>9ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>7ª Giornata lega</t>
+  </si>
+  <si>
+    <t>10ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>8ª Giornata lega</t>
+  </si>
+  <si>
+    <t>11ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>9ª Giornata lega</t>
+  </si>
+  <si>
+    <t>12ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>10ª Giornata lega</t>
+  </si>
+  <si>
+    <t>13ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>11ª Giornata lega</t>
+  </si>
+  <si>
+    <t>14ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>12ª Giornata lega</t>
+  </si>
+  <si>
+    <t>15ª Giornata serie a</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>5ª Giornata lega</t>
-  </si>
-  <si>
-    <t>8ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>6ª Giornata lega</t>
-  </si>
-  <si>
-    <t>9ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>7ª Giornata lega</t>
-  </si>
-  <si>
-    <t>10ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>8ª Giornata lega</t>
-  </si>
-  <si>
-    <t>11ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>9ª Giornata lega</t>
-  </si>
-  <si>
-    <t>12ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>10ª Giornata lega</t>
-  </si>
-  <si>
-    <t>13ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>11ª Giornata lega</t>
-  </si>
-  <si>
-    <t>14ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>12ª Giornata lega</t>
-  </si>
-  <si>
-    <t>15ª Giornata serie a</t>
+    <t>3-1</t>
   </si>
   <si>
     <t>13ª Giornata lega</t>
@@ -632,10 +662,10 @@
         <v>6</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I10" s="6">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -664,16 +694,16 @@
         <v>7</v>
       </c>
       <c r="H11" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -696,16 +726,16 @@
         <v>14</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I12" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -728,16 +758,16 @@
         <v>12</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I13" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -765,31 +795,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -797,25 +827,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
@@ -829,31 +859,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="I17" s="6">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -861,49 +891,49 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I18" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -913,31 +943,31 @@
         <v>11</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="I20" s="6">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -945,31 +975,31 @@
         <v>14</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="I21" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -977,31 +1007,31 @@
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C22" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -1009,49 +1039,49 @@
         <v>12</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I23" s="6">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="G24" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
@@ -1061,31 +1091,31 @@
         <v>9</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="I25" s="6">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1093,31 +1123,31 @@
         <v>15</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="C26" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I26" s="6">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -1125,31 +1155,31 @@
         <v>11</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="6">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="I27" s="6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1157,49 +1187,49 @@
         <v>6</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
@@ -1209,16 +1239,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="6">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>6</v>
@@ -1233,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
@@ -1241,16 +1271,16 @@
         <v>11</v>
       </c>
       <c r="B31" s="6">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>9</v>
@@ -1265,7 +1295,7 @@
         <v>15</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
@@ -1273,16 +1303,16 @@
         <v>17</v>
       </c>
       <c r="B32" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C32" s="6">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>12</v>
@@ -1297,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -1305,10 +1335,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="6">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C33" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>12</v>
@@ -1329,25 +1359,25 @@
         <v>17</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
@@ -1366,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>15</v>
@@ -1381,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
@@ -1398,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>6</v>
@@ -1413,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -1430,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>9</v>
@@ -1445,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
@@ -1462,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
@@ -1477,25 +1507,25 @@
         <v>12</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
@@ -1514,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>7</v>
@@ -1529,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
@@ -1546,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -1561,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
@@ -1578,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>17</v>
@@ -1593,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
@@ -1610,7 +1640,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -1625,25 +1655,25 @@
         <v>6</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="G44" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
@@ -1662,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>6</v>
@@ -1677,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
@@ -1694,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>7</v>
@@ -1709,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
@@ -1726,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -1741,7 +1771,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
@@ -1758,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>12</v>
@@ -1773,25 +1803,25 @@
         <v>9</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
@@ -1810,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>6</v>
@@ -1825,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1842,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -1857,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1874,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>15</v>
@@ -1889,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>9</v>
@@ -1921,25 +1951,25 @@
         <v>11</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
@@ -1958,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>7</v>
@@ -1973,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>12</v>
@@ -2005,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
@@ -2022,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>17</v>
@@ -2037,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -2054,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
@@ -2069,25 +2099,25 @@
         <v>9</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="G59" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
@@ -2106,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -2121,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -2138,7 +2168,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>7</v>
@@ -2153,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2200,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>6</v>
@@ -2185,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
@@ -2202,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>12</v>
@@ -2217,25 +2247,25 @@
         <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -2254,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>6</v>
@@ -2269,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -2286,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>9</v>
@@ -2301,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
@@ -2318,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
@@ -2333,7 +2363,7 @@
         <v>14</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
@@ -2350,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -2365,25 +2395,25 @@
         <v>17</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
@@ -2402,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
@@ -2417,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71">
@@ -2434,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>6</v>
@@ -2449,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
@@ -2466,7 +2496,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>9</v>
@@ -2481,7 +2511,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73">
@@ -2498,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>7</v>
@@ -2513,25 +2543,25 @@
         <v>12</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="G74" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="4"/>
@@ -2550,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>7</v>
@@ -2565,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76">
@@ -2582,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -2597,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
@@ -2614,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>17</v>
@@ -2629,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
@@ -2646,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>12</v>
@@ -2661,25 +2691,25 @@
         <v>6</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="G79" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="4"/>
@@ -2698,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>6</v>
@@ -2713,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81">
@@ -2730,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>7</v>
@@ -2745,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -2762,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -2777,7 +2807,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83">
@@ -2794,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>12</v>
@@ -2809,25 +2839,25 @@
         <v>9</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="G84" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="4"/>
@@ -2846,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>6</v>
@@ -2861,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86">
@@ -2878,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>7</v>
@@ -2893,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87">
@@ -2910,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
@@ -2925,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88">
@@ -2942,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>9</v>
@@ -2957,16 +2987,16 @@
         <v>11</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
@@ -2985,7 +3015,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91">
@@ -3002,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92">
@@ -3019,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
@@ -3036,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/Calendario_Campionato---A-buon-rendere.xlsx
+++ b/data/Calendario_Campionato---A-buon-rendere.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Calendario Campionato - A buon rendere</t>
   </si>
@@ -176,34 +176,43 @@
     <t>15ª Giornata serie a</t>
   </si>
   <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>13ª Giornata lega</t>
+  </si>
+  <si>
+    <t>16ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>14ª Giornata lega</t>
+  </si>
+  <si>
+    <t>17ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>15ª Giornata lega</t>
+  </si>
+  <si>
+    <t>18ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>16ª Giornata lega</t>
+  </si>
+  <si>
+    <t>19ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>13ª Giornata lega</t>
-  </si>
-  <si>
-    <t>16ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>14ª Giornata lega</t>
-  </si>
-  <si>
-    <t>17ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>15ª Giornata lega</t>
-  </si>
-  <si>
-    <t>18ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>16ª Giornata lega</t>
-  </si>
-  <si>
-    <t>19ª Giornata serie a</t>
+    <t>1-0</t>
   </si>
   <si>
     <t>17ª Giornata lega</t>
@@ -1254,16 +1263,16 @@
         <v>6</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1286,10 +1295,10 @@
         <v>9</v>
       </c>
       <c r="H31" s="6">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="I31" s="6">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
@@ -1318,16 +1327,16 @@
         <v>12</v>
       </c>
       <c r="H32" s="6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I32" s="6">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1350,16 +1359,16 @@
         <v>7</v>
       </c>
       <c r="H33" s="6">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="I33" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1387,31 +1396,31 @@
         <v>17</v>
       </c>
       <c r="B35" s="6">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C35" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="6">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="I35" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -1419,31 +1428,31 @@
         <v>14</v>
       </c>
       <c r="B36" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C36" s="6">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I36" s="6">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -1451,31 +1460,31 @@
         <v>12</v>
       </c>
       <c r="B37" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="C37" s="6">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="6">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="I37" s="6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1483,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="B38" s="6">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="C38" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I38" s="6">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1535,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="B40" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>7</v>
@@ -1559,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -1567,16 +1576,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -1591,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1599,16 +1608,16 @@
         <v>15</v>
       </c>
       <c r="B42" s="6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>17</v>
@@ -1623,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -1631,16 +1640,16 @@
         <v>9</v>
       </c>
       <c r="B43" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C43" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -1655,25 +1664,25 @@
         <v>6</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="G44" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
@@ -1692,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>6</v>
@@ -1707,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
@@ -1724,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>7</v>
@@ -1739,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
@@ -1756,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -1771,7 +1780,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -1788,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>12</v>
@@ -1803,25 +1812,25 @@
         <v>9</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
@@ -1840,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>6</v>
@@ -1855,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -1872,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -1887,7 +1896,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
@@ -1904,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>15</v>
@@ -1919,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
@@ -1936,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>9</v>
@@ -1951,25 +1960,25 @@
         <v>11</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
@@ -1988,7 +1997,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>7</v>
@@ -2003,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
@@ -2020,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>12</v>
@@ -2035,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
@@ -2052,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>17</v>
@@ -2067,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
@@ -2084,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
@@ -2099,25 +2108,25 @@
         <v>9</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
@@ -2136,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -2151,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -2168,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>7</v>
@@ -2183,7 +2192,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -2200,7 +2209,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>6</v>
@@ -2215,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63">
@@ -2232,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>12</v>
@@ -2247,25 +2256,25 @@
         <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -2284,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>6</v>
@@ -2299,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66">
@@ -2316,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>9</v>
@@ -2331,7 +2340,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -2348,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
@@ -2363,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68">
@@ -2380,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -2395,25 +2404,25 @@
         <v>17</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
@@ -2432,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
@@ -2447,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -2464,7 +2473,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>6</v>
@@ -2479,7 +2488,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -2496,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>9</v>
@@ -2511,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -2528,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>7</v>
@@ -2543,25 +2552,25 @@
         <v>12</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="G74" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="4"/>
@@ -2580,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>7</v>
@@ -2595,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -2612,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -2627,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -2644,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>17</v>
@@ -2659,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78">
@@ -2676,7 +2685,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>12</v>
@@ -2691,25 +2700,25 @@
         <v>6</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="G79" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="4"/>
@@ -2728,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>6</v>
@@ -2743,7 +2752,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
@@ -2760,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>7</v>
@@ -2775,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
@@ -2792,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -2807,7 +2816,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
@@ -2824,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>12</v>
@@ -2839,25 +2848,25 @@
         <v>9</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="4"/>
@@ -2876,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>6</v>
@@ -2891,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86">
@@ -2908,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>7</v>
@@ -2923,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87">
@@ -2940,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
@@ -2955,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -2972,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>9</v>
@@ -2987,16 +2996,16 @@
         <v>11</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
@@ -3015,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
@@ -3032,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92">
@@ -3049,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93">
@@ -3066,7 +3075,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/Calendario_Campionato---A-buon-rendere.xlsx
+++ b/data/Calendario_Campionato---A-buon-rendere.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Calendario Campionato - A buon rendere</t>
   </si>
@@ -209,34 +209,49 @@
     <t>0-4</t>
   </si>
   <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>17ª Giornata lega</t>
+  </si>
+  <si>
+    <t>20ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>18ª Giornata lega</t>
+  </si>
+  <si>
+    <t>21ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>19ª Giornata lega</t>
+  </si>
+  <si>
+    <t>22ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>20ª Giornata lega</t>
+  </si>
+  <si>
+    <t>23ª Giornata serie a</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>17ª Giornata lega</t>
-  </si>
-  <si>
-    <t>20ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>18ª Giornata lega</t>
-  </si>
-  <si>
-    <t>21ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>19ª Giornata lega</t>
-  </si>
-  <si>
-    <t>22ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>20ª Giornata lega</t>
-  </si>
-  <si>
-    <t>23ª Giornata serie a</t>
   </si>
   <si>
     <t>21ª Giornata lega</t>
@@ -1559,16 +1574,16 @@
         <v>7</v>
       </c>
       <c r="H40" s="6">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="I40" s="6">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
@@ -1591,16 +1606,16 @@
         <v>14</v>
       </c>
       <c r="H41" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I41" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -1617,16 +1632,16 @@
         <v>17</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="I42" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>11</v>
@@ -1655,16 +1670,16 @@
         <v>12</v>
       </c>
       <c r="H43" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="I43" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -1692,31 +1707,31 @@
         <v>11</v>
       </c>
       <c r="B45" s="6">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I45" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1724,31 +1739,31 @@
         <v>15</v>
       </c>
       <c r="B46" s="6">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="6">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I46" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -1756,31 +1771,31 @@
         <v>9</v>
       </c>
       <c r="B47" s="6">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="6">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="I47" s="6">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -1788,49 +1803,49 @@
         <v>17</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="6">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="I48" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
@@ -1849,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>6</v>
@@ -1864,7 +1879,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
@@ -1881,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -1896,7 +1911,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -1913,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>15</v>
@@ -1928,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -1945,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>9</v>
@@ -1960,25 +1975,25 @@
         <v>11</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
@@ -1997,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>7</v>
@@ -2012,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -2029,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>12</v>
@@ -2044,7 +2059,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -2061,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>17</v>
@@ -2076,7 +2091,7 @@
         <v>15</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -2093,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
@@ -2108,25 +2123,25 @@
         <v>9</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
@@ -2145,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -2160,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -2177,7 +2192,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>7</v>
@@ -2192,7 +2207,7 @@
         <v>15</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -2209,7 +2224,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>6</v>
@@ -2224,7 +2239,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
@@ -2241,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>12</v>
@@ -2256,25 +2271,25 @@
         <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -2293,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>6</v>
@@ -2308,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -2325,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>9</v>
@@ -2340,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
@@ -2357,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
@@ -2372,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
@@ -2389,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -2404,25 +2419,25 @@
         <v>17</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
@@ -2441,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
@@ -2456,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
@@ -2473,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>6</v>
@@ -2488,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -2505,7 +2520,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>9</v>
@@ -2520,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
@@ -2537,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>7</v>
@@ -2552,25 +2567,25 @@
         <v>12</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="G74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="4"/>
@@ -2589,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>7</v>
@@ -2604,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
@@ -2621,7 +2636,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -2636,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
@@ -2653,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>17</v>
@@ -2668,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
@@ -2685,7 +2700,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>12</v>
@@ -2700,25 +2715,25 @@
         <v>6</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="G79" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="4"/>
@@ -2737,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>6</v>
@@ -2752,7 +2767,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -2769,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>7</v>
@@ -2784,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
@@ -2801,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -2816,7 +2831,7 @@
         <v>17</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
@@ -2833,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>12</v>
@@ -2848,25 +2863,25 @@
         <v>9</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="4"/>
@@ -2885,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>6</v>
@@ -2900,7 +2915,7 @@
         <v>17</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -2917,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>7</v>
@@ -2932,7 +2947,7 @@
         <v>14</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
@@ -2949,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>15</v>
@@ -2964,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
@@ -2981,7 +2996,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>9</v>
@@ -2996,16 +3011,16 @@
         <v>11</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
@@ -3024,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
@@ -3041,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -3058,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
@@ -3075,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
